--- a/src/test/resources/withExtraCols.xlsx
+++ b/src/test/resources/withExtraCols.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -428,7 +428,7 @@
   <dimension ref="A1:K998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -543,9 +543,7 @@
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="H5" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
